--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_23.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66)]</t>
+          <t>[('0:01:28.480000', '0:01:40.380000'), ('0:00:40.380000', '0:00:42.280000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:26.200000', '0:00:33.960000'), ('0:01:20.200000', '0:01:26.860000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>isophonics_266</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1231527093596059</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
+          <t>[['E', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(9.56, 25.14)]</t>
+          <t>[['B', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(3.1, 7.72)]</t>
+          <t>[('0:01:29.915646', '0:01:37.020952')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:02.537346', '0:00:08.504874')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>schubert-winterreise_132</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'A#:maj/F']]</t>
-        </is>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>[['F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(16.02, 22.2)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(26.987959, 33.059977)]</t>
+          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_219</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min/5', 'F/5', 'Eb/5']]</t>
-        </is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min', 'A', 'G']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(5.9078, 9.297913)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(70.712128, 75.058526)]</t>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[('0:00:40.380000', '0:00:42.280000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:00.360000', '0:00:07.140000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4578947368421052</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C', 'G', 'C', 'G', 'C', 'G'], ['G', 'C', 'G', 'C', 'G', 'G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E'], ['E', 'A', 'E', 'A', 'E', 'E']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:01:27.686530', '0:01:42.489251'), ('0:00:44.300045', '0:00:57.976598')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:35.197913', '0:00:52.299410'), ('0:00:37.995918', '0:01:09.517005')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2113636363636364</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'A']]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(5.78, 11.38)]</t>
+          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[('0:00:15.360000', '0:00:45.820000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
+          <t>[('0:00:14.460000', '0:00:46.680000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(4.16, 8.8)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(9.9, 26.98)]</t>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1187888198757764</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(44.82, 47.28)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(1.014823, 6.126439)]</t>
+          <t>[('0:03:46.020000', '0:04:01.060000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:20.080000', '0:00:23.800000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(20.42, 23.5)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(5.78, 12.6)]</t>
+          <t>[('0:00:07.160000', '0:00:19.200000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(25.48, 32.8), (74.5, 80.42)]</t>
+          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(87.68, 98.02), (43.18, 45.1)]</t>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:02:00.660000', '0:02:02.740000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1789473684210526</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Eb', 'F', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(44.917324, 48.272607)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(51.85331, 57.05458)]</t>
+          <t>[('0:01:36.660000', '0:01:46.300000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+          <t>[('0:01:49.440000', '0:02:03.140000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4333333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66)]</t>
+          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:03.129454', '0:00:05.822970')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7), (32.06, 33.28), (8.2, 12.66)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (53.46, 62.74), (0.38, 6.26)]</t>
+          <t>[('0:00:16.320000', '0:01:01.580000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.9, 101.9)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.28, 102.52)]</t>
+          <t>[('0:00:00.600000', '0:00:40.540000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.5, 4.8)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(47.3, 50.04)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.240000', '0:00:35.100000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
